--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2009,10 +2021,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2056,28 +2068,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2102,28 +2114,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3339,10 +3351,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3386,28 +3398,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3432,28 +3444,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3773,10 +3785,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3820,28 +3832,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3866,28 +3878,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4062,10 +4074,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4109,28 +4121,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4155,28 +4167,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4409,10 +4421,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4456,28 +4468,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4502,28 +4514,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4785,10 +4797,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4832,28 +4844,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4878,28 +4890,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5103,10 +5115,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5150,28 +5162,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5196,28 +5208,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5334,10 +5346,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
+      <c r="J180" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5381,28 +5393,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
